--- a/xlsx/country_comparison/reparations_support_positive.xlsx
+++ b/xlsx/country_comparison/reparations_support_positive.xlsx
@@ -414,7 +414,7 @@
         <v>0.389632627264691</v>
       </c>
       <c r="D2" t="n">
-        <v>0.330319367513296</v>
+        <v>0.330319367513297</v>
       </c>
       <c r="E2" t="n">
         <v>0.336287925808747</v>

--- a/xlsx/country_comparison/reparations_support_positive.xlsx
+++ b/xlsx/country_comparison/reparations_support_positive.xlsx
@@ -408,13 +408,13 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>0.347856888878235</v>
+        <v>0.347853243460036</v>
       </c>
       <c r="C2" t="n">
         <v>0.389632627264691</v>
       </c>
       <c r="D2" t="n">
-        <v>0.330319367513297</v>
+        <v>0.330319367513296</v>
       </c>
       <c r="E2" t="n">
         <v>0.336287925808747</v>
@@ -429,7 +429,7 @@
         <v>0.352147255041012</v>
       </c>
       <c r="I2" t="n">
-        <v>0.30621976760944</v>
+        <v>0.306378388289677</v>
       </c>
     </row>
   </sheetData>
